--- a/SFE - InternalEnergy/LUKE_T50_P300.xlsx
+++ b/SFE - InternalEnergy/LUKE_T50_P300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - CostFunction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A81CF5A-C863-4CFE-A562-BC26B649F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6101307-A460-4274-8814-6913596CBDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{52CBFE7A-81AB-4A5A-AED2-37A00D25EE49}"/>
+    <workbookView xWindow="14190" yWindow="4065" windowWidth="12150" windowHeight="15435" xr2:uid="{52CBFE7A-81AB-4A5A-AED2-37A00D25EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -405,7 +407,7 @@
   <dimension ref="D3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
